--- a/E1NewSeleniumProject/data/testData.xlsx
+++ b/E1NewSeleniumProject/data/testData.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karis\git\SeleniumE1\E1NewSeleniumProject\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3DB51A-96FE-4EB7-B336-648A898FC252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{506B7289-A771-44A1-8781-520028E3707B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ipl" sheetId="1" r:id="rId1"/>
     <sheet name="validcreds" sheetId="2" r:id="rId2"/>
+    <sheet name="invalidcreds" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
   <si>
     <t>Teams</t>
   </si>
@@ -94,9 +95,6 @@
     <t>M.S.D</t>
   </si>
   <si>
-    <t>Team Owner</t>
-  </si>
-  <si>
     <t>Username</t>
   </si>
   <si>
@@ -107,6 +105,24 @@
   </si>
   <si>
     <t>manager</t>
+  </si>
+  <si>
+    <t>Admin@</t>
+  </si>
+  <si>
+    <t>Manager@123</t>
+  </si>
+  <si>
+    <t>qspider</t>
+  </si>
+  <si>
+    <t>actitime</t>
+  </si>
+  <si>
+    <t>testyantra</t>
+  </si>
+  <si>
+    <t>fireflink</t>
   </si>
 </sst>
 </file>
@@ -150,7 +166,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -302,11 +318,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -318,6 +364,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -598,10 +650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -609,18 +661,15 @@
     <col min="2" max="2" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -628,7 +677,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
@@ -636,7 +685,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
@@ -644,7 +693,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
@@ -652,7 +701,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
@@ -660,7 +709,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -668,7 +717,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
@@ -676,7 +725,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
@@ -684,7 +733,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
@@ -692,7 +741,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>11</v>
       </c>
@@ -710,26 +759,100 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCE617D9-ACA5-4C23-A28D-CF9CCFE368DF}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>23</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="8" t="s">
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5A8BAF0-EF08-47F1-BD2B-0C0357A4C6AB}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
         <v>26</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
